--- a/Script samples/Excel/Crumple_ReplaceParameters.xlsx
+++ b/Script samples/Excel/Crumple_ReplaceParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gavin\Documents\GitHub\Crumple\Script samples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94BA9A8-7E93-4A5B-B11B-2CA974C5BF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B495CB1-3D2D-45B3-97BD-1BB999CD62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{30AE8524-9B3E-4716-96F5-5644E08ABBCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30AE8524-9B3E-4716-96F5-5644E08ABBCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BG_DIM_Width1</t>
   </si>
   <si>
-    <t>BG_DIM_Depth1</t>
-  </si>
-  <si>
     <t>BG_DIM_Height1</t>
   </si>
   <si>
@@ -59,7 +56,16 @@
     <t>BG_DIM_Depth2</t>
   </si>
   <si>
-    <t>BG_DIM_Height2</t>
+    <t>BG_DIM_Depth</t>
+  </si>
+  <si>
+    <t>Keynote</t>
+  </si>
+  <si>
+    <t>BG_DAT_Code1</t>
+  </si>
+  <si>
+    <t>BG_DAT_Comment1</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,14 +126,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6F8710-3931-4088-9841-39C194C58B2A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,23 +504,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
